--- a/data/trans_orig/P6704-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>38722</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28395</v>
+        <v>27932</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50812</v>
+        <v>50229</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2115743283591252</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1551497979775167</v>
+        <v>0.1526198614369927</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2776320501426572</v>
+        <v>0.274448537086097</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -764,19 +764,19 @@
         <v>50346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40183</v>
+        <v>39176</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63427</v>
+        <v>62420</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3699785860593903</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.295288057051864</v>
+        <v>0.2878888053648256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4661043552466007</v>
+        <v>0.4587033063108493</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -785,19 +785,19 @@
         <v>89068</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73113</v>
+        <v>72379</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106346</v>
+        <v>106568</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.27912576755335</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2291235026906661</v>
+        <v>0.2268231000825701</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3332703145014952</v>
+        <v>0.3339675616098753</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>38047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27309</v>
+        <v>27485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49658</v>
+        <v>49623</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2078872355257578</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1492156707523965</v>
+        <v>0.1501783127688875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2713277769291123</v>
+        <v>0.271135952364267</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -835,19 +835,19 @@
         <v>25669</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17622</v>
+        <v>16699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36235</v>
+        <v>35846</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.188629484778038</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1294959180134512</v>
+        <v>0.1227176639799537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2662764858465191</v>
+        <v>0.2634208691777638</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -856,19 +856,19 @@
         <v>63716</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49860</v>
+        <v>49602</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>77885</v>
+        <v>77796</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1996747745885417</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.156253515473697</v>
+        <v>0.1554442429500527</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2440795489278267</v>
+        <v>0.2437995814566958</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>56544</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44553</v>
+        <v>45089</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69335</v>
+        <v>69576</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3089512033539432</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.243433067427021</v>
+        <v>0.2463611527590135</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3788409377291166</v>
+        <v>0.380158698248817</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -906,19 +906,19 @@
         <v>33346</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24117</v>
+        <v>23721</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44387</v>
+        <v>43874</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2450472749216281</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.177227495704588</v>
+        <v>0.1743171158427429</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3261881106125263</v>
+        <v>0.3224171840221238</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -927,19 +927,19 @@
         <v>89889</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75048</v>
+        <v>74786</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>107041</v>
+        <v>107381</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.281699395868213</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2351884459432286</v>
+        <v>0.2343660657434659</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3354482544899532</v>
+        <v>0.3365144597329487</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>19706</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12371</v>
+        <v>12184</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30310</v>
+        <v>29473</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1076719850961359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06759636896891458</v>
+        <v>0.06657316875969055</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1656126925602615</v>
+        <v>0.1610388698601254</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -977,19 +977,19 @@
         <v>7253</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14230</v>
+        <v>13627</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0533000206709047</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02250639847741354</v>
+        <v>0.02251582756231935</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1045687343230295</v>
+        <v>0.1001413136997862</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -998,19 +998,19 @@
         <v>26959</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18263</v>
+        <v>18935</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39169</v>
+        <v>38184</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0844850802612199</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05723217267764398</v>
+        <v>0.05933798662838706</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1227502789838261</v>
+        <v>0.1196624213537047</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>29999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21683</v>
+        <v>21531</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41029</v>
+        <v>41100</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1639152476650379</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1184733865833567</v>
+        <v>0.11764539424613</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.224180782753869</v>
+        <v>0.224567639023067</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -1048,19 +1048,19 @@
         <v>19465</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11271</v>
+        <v>12331</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28555</v>
+        <v>28748</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1430446335700389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08282893452861217</v>
+        <v>0.09061499396048901</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2098447716839446</v>
+        <v>0.2112628480092696</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>47</v>
@@ -1069,19 +1069,19 @@
         <v>49465</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37565</v>
+        <v>38591</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62935</v>
+        <v>63731</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1550149817286754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1177240394109628</v>
+        <v>0.1209388185133573</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1972291818443426</v>
+        <v>0.1997233762403169</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>184866</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161096</v>
+        <v>160725</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>212213</v>
+        <v>212558</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2030531449448862</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1769445537199938</v>
+        <v>0.1765369517573396</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2330899132776898</v>
+        <v>0.23346970131311</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -1194,19 +1194,19 @@
         <v>130649</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>110825</v>
+        <v>110017</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>151598</v>
+        <v>151540</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2293588955092632</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1945580557391796</v>
+        <v>0.1931392449290051</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2661363414241198</v>
+        <v>0.2660350721247572</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>290</v>
@@ -1215,19 +1215,19 @@
         <v>315515</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>279887</v>
+        <v>284785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>348290</v>
+        <v>349248</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2131773541326432</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1891058851996897</v>
+        <v>0.1924151111921387</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.235322170214827</v>
+        <v>0.2359693683485445</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>152051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130677</v>
+        <v>132485</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>176277</v>
+        <v>177564</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1670091808754327</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1435326588614008</v>
+        <v>0.1455183895523542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1936190223885366</v>
+        <v>0.195032231368363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -1265,19 +1265,19 @@
         <v>103715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>86370</v>
+        <v>84763</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>124930</v>
+        <v>121865</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1820757979842478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1516268689290005</v>
+        <v>0.148805156497137</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2193197741615679</v>
+        <v>0.2139384193187122</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>242</v>
@@ -1286,19 +1286,19 @@
         <v>255765</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>228968</v>
+        <v>227416</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>286665</v>
+        <v>285107</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1728078211000552</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1547021606330594</v>
+        <v>0.153653421405907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1936848564616965</v>
+        <v>0.1926326141517031</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>281197</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>254817</v>
+        <v>249163</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>314820</v>
+        <v>307621</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3088606311169696</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2798856684900382</v>
+        <v>0.2736759322040719</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3457922057326048</v>
+        <v>0.3378845639073604</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -1336,19 +1336,19 @@
         <v>159663</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>138762</v>
+        <v>139701</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>182287</v>
+        <v>182495</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2802954898719217</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.243602267498522</v>
+        <v>0.2452510993248018</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3200121247538551</v>
+        <v>0.3203771309965961</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>420</v>
@@ -1357,19 +1357,19 @@
         <v>440860</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>401363</v>
+        <v>405500</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>474662</v>
+        <v>479043</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2978668575413043</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2711806420982057</v>
+        <v>0.2739760840187337</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3207053310572948</v>
+        <v>0.323665372097248</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>154338</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130679</v>
+        <v>132302</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178032</v>
+        <v>177738</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1695220188113572</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1435350890846161</v>
+        <v>0.1453183401655782</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1955472379544619</v>
+        <v>0.1952233097344934</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -1407,19 +1407,19 @@
         <v>97634</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81795</v>
+        <v>80621</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118206</v>
+        <v>113988</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1714010547312955</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.143594635942188</v>
+        <v>0.1415328780229822</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2075153743741276</v>
+        <v>0.2001104141751663</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>240</v>
@@ -1428,19 +1428,19 @@
         <v>251973</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>223834</v>
+        <v>222916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>282117</v>
+        <v>283695</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1702451972919791</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1512331079922104</v>
+        <v>0.1506129629165851</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1906123205525268</v>
+        <v>0.1916785843683854</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>137981</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>116399</v>
+        <v>116925</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>159936</v>
+        <v>163920</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1515550242513543</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1278504350793387</v>
+        <v>0.128428186185793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1756699925425605</v>
+        <v>0.1800465925468292</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -1478,19 +1478,19 @@
         <v>77964</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>62081</v>
+        <v>60564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95653</v>
+        <v>96143</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1368687619032718</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1089864653357187</v>
+        <v>0.1063233402020311</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1679225892608839</v>
+        <v>0.1687821784191794</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>202</v>
@@ -1499,19 +1499,19 @@
         <v>215944</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>189561</v>
+        <v>190496</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>246030</v>
+        <v>245135</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1459027699340182</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1280770772317728</v>
+        <v>0.1287083344952412</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1662299717556479</v>
+        <v>0.1656253033285909</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>39755</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28395</v>
+        <v>28430</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52930</v>
+        <v>53824</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1261108399073683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09007616326104392</v>
+        <v>0.09018556239524096</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1679067425840114</v>
+        <v>0.1707433909714866</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -1624,19 +1624,19 @@
         <v>39890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29119</v>
+        <v>28347</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55250</v>
+        <v>53262</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1712655015119491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.125021935520042</v>
+        <v>0.1217062556270219</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2372148047889104</v>
+        <v>0.2286757918285034</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>71</v>
@@ -1645,19 +1645,19 @@
         <v>79645</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63811</v>
+        <v>64759</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100039</v>
+        <v>100973</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1452974630009034</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1164112016261032</v>
+        <v>0.1181405158472474</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1825036742908206</v>
+        <v>0.1842067124997958</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>68114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51063</v>
+        <v>52121</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84498</v>
+        <v>84915</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2160730106799544</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.161984031077315</v>
+        <v>0.1653405842510787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2680487677830382</v>
+        <v>0.2693706283528452</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1695,19 +1695,19 @@
         <v>32674</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23235</v>
+        <v>23417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45615</v>
+        <v>45185</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1402828979375709</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09975731325863575</v>
+        <v>0.1005385114656321</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1958465245795702</v>
+        <v>0.1940005172956845</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>86</v>
@@ -1716,19 +1716,19 @@
         <v>100788</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82912</v>
+        <v>81732</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>125325</v>
+        <v>121575</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1838691080100885</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1512590509229794</v>
+        <v>0.1491061714111029</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2286326958399308</v>
+        <v>0.2217911659729472</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>100967</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>84115</v>
+        <v>82742</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>117924</v>
+        <v>118923</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3202918227220153</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.26683139504506</v>
+        <v>0.2624773418440213</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3740823884871831</v>
+        <v>0.3772516366297939</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>72</v>
@@ -1766,19 +1766,19 @@
         <v>79054</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>64089</v>
+        <v>64867</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>94947</v>
+        <v>94316</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3394131307700108</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2751613126292006</v>
+        <v>0.2785013542904503</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4076500542486262</v>
+        <v>0.4049392028867173</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>167</v>
@@ -1787,19 +1787,19 @@
         <v>180021</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>156264</v>
+        <v>153814</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>202339</v>
+        <v>201600</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.328416639020828</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2850752570155818</v>
+        <v>0.2806056031319873</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3691311953026226</v>
+        <v>0.3677828563086549</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>51282</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38445</v>
+        <v>38298</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66477</v>
+        <v>64890</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1626800141138757</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1219552700724449</v>
+        <v>0.1214914208842025</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2108800226200081</v>
+        <v>0.205845973327179</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -1837,19 +1837,19 @@
         <v>45784</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34193</v>
+        <v>34517</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59243</v>
+        <v>59970</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.19657138793855</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1468044742298722</v>
+        <v>0.1481963251536511</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2543586689035258</v>
+        <v>0.2574783624864337</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -1858,19 +1858,19 @@
         <v>97067</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79559</v>
+        <v>79360</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116710</v>
+        <v>116512</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.177080764614244</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1451406544798418</v>
+        <v>0.1447785761733498</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2129168847835055</v>
+        <v>0.2125545181925415</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>55117</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41350</v>
+        <v>42252</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70201</v>
+        <v>71836</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1748443125767864</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1311721626218778</v>
+        <v>0.1340336317657678</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2226929941392127</v>
+        <v>0.2278796558067087</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -1908,19 +1908,19 @@
         <v>35512</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24481</v>
+        <v>24235</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47820</v>
+        <v>49435</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1524670818419192</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1051063747735532</v>
+        <v>0.1040511534265428</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2053110817041195</v>
+        <v>0.2122469559154982</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -1929,19 +1929,19 @@
         <v>90629</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>73258</v>
+        <v>71997</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>109998</v>
+        <v>111419</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.165336025353936</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1336468212271832</v>
+        <v>0.1313455845016257</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2006718178118545</v>
+        <v>0.2032639426721226</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>263343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>235611</v>
+        <v>233545</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>297348</v>
+        <v>291266</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1869421020984904</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1672556150612084</v>
+        <v>0.1657889071919211</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2110818945394051</v>
+        <v>0.2067645534837496</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>203</v>
@@ -2054,19 +2054,19 @@
         <v>220885</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>194834</v>
+        <v>193325</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>247186</v>
+        <v>247827</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2353300627126414</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2075755175658754</v>
+        <v>0.2059679747254153</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2633513201215898</v>
+        <v>0.2640341230530301</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>444</v>
@@ -2075,19 +2075,19 @@
         <v>484228</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>446509</v>
+        <v>442091</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>529361</v>
+        <v>524019</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2062910154358378</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.190222252242702</v>
+        <v>0.1883400826404411</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2255189150274694</v>
+        <v>0.2232429307691484</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>258212</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227146</v>
+        <v>228405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>289981</v>
+        <v>288524</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1832995973453889</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1612467745146474</v>
+        <v>0.1621402616774659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2058524539514995</v>
+        <v>0.2048180282340154</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>150</v>
@@ -2125,19 +2125,19 @@
         <v>162057</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>141264</v>
+        <v>139081</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>186643</v>
+        <v>186840</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1726552313871721</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1505024026805836</v>
+        <v>0.1481769745849403</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1988487186775459</v>
+        <v>0.1990587597531845</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>389</v>
@@ -2146,19 +2146,19 @@
         <v>420269</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>382694</v>
+        <v>382084</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>460071</v>
+        <v>461006</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1790432304342296</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.163035667736</v>
+        <v>0.1627755739082265</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1959999123826385</v>
+        <v>0.1963982320388384</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>438708</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>403088</v>
+        <v>405614</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>476140</v>
+        <v>474939</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3114304669477205</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2861446770933903</v>
+        <v>0.2879376207937284</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3380027916454669</v>
+        <v>0.3371504460265562</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>252</v>
@@ -2196,19 +2196,19 @@
         <v>272063</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>243104</v>
+        <v>244018</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>302540</v>
+        <v>301443</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2898550318644932</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2590026092811165</v>
+        <v>0.2599764980033511</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3223256717404775</v>
+        <v>0.3211563066801625</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>672</v>
@@ -2217,19 +2217,19 @@
         <v>710771</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>666065</v>
+        <v>665491</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>755661</v>
+        <v>758931</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3028030890143996</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2837577780500752</v>
+        <v>0.2835128731891454</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3219273955418105</v>
+        <v>0.3233205880795999</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>225327</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>198584</v>
+        <v>198535</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>256799</v>
+        <v>256837</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1599552839487468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1409709254758793</v>
+        <v>0.1409362891779941</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1822970345084774</v>
+        <v>0.1823238950175976</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>141</v>
@@ -2267,19 +2267,19 @@
         <v>150671</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>128609</v>
+        <v>129525</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>175630</v>
+        <v>175092</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1605248984705669</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1370191594546484</v>
+        <v>0.1379953364699008</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1871155954371343</v>
+        <v>0.1865425772803922</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>356</v>
@@ -2288,19 +2288,19 @@
         <v>375998</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>338226</v>
+        <v>340505</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>411841</v>
+        <v>414800</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1601830559374503</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1440912759049242</v>
+        <v>0.1450620165413848</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1754526782185331</v>
+        <v>0.1767135525070622</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>223097</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>193136</v>
+        <v>196128</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>249426</v>
+        <v>252403</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1583725496596535</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1371034058235957</v>
+        <v>0.1392274071228512</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1770626641478247</v>
+        <v>0.1791759295159198</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>120</v>
@@ -2338,19 +2338,19 @@
         <v>132941</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>110548</v>
+        <v>111197</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>157272</v>
+        <v>157800</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1416347755651263</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1177776965241297</v>
+        <v>0.1184693493092505</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1675571761754561</v>
+        <v>0.1681201273307477</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>327</v>
@@ -2359,19 +2359,19 @@
         <v>356038</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>321033</v>
+        <v>317679</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>394267</v>
+        <v>393660</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1516796091780827</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1367667497983978</v>
+        <v>0.1353380220155275</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1679658493129914</v>
+        <v>0.1677071722706146</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>36639</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26938</v>
+        <v>27240</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48472</v>
+        <v>48944</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2592978274896266</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1906470944295095</v>
+        <v>0.1927845372439451</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.343048215673861</v>
+        <v>0.3463852484487812</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2723,19 +2723,19 @@
         <v>17966</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11596</v>
+        <v>11739</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25938</v>
+        <v>26239</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2598969293220449</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1677537829519812</v>
+        <v>0.1698219609317897</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3752132742391305</v>
+        <v>0.379570811029407</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -2744,19 +2744,19 @@
         <v>54605</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42553</v>
+        <v>42712</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69049</v>
+        <v>68134</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2594946409495542</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2022199274233229</v>
+        <v>0.202975971936904</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3281372297768598</v>
+        <v>0.3237905435246966</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>26702</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17671</v>
+        <v>18489</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37106</v>
+        <v>38289</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1889721583653666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1250614052586667</v>
+        <v>0.1308491868711893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2626090212328401</v>
+        <v>0.2709781963825536</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -2794,19 +2794,19 @@
         <v>14073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8654</v>
+        <v>8787</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21618</v>
+        <v>22076</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2035850816698095</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1251838262675558</v>
+        <v>0.1271132713290308</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3127219493551963</v>
+        <v>0.3193454711290282</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -2815,19 +2815,19 @@
         <v>40775</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30183</v>
+        <v>30216</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>53084</v>
+        <v>53729</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1937727111922458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.143435360382636</v>
+        <v>0.1435956507584764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2522679923344776</v>
+        <v>0.2553340775432275</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>49202</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38200</v>
+        <v>38035</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61004</v>
+        <v>60817</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3482105816376073</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2703462624049764</v>
+        <v>0.2691834018213981</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4317345897580885</v>
+        <v>0.4304140892307582</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -2865,19 +2865,19 @@
         <v>22206</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14973</v>
+        <v>15056</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30477</v>
+        <v>29916</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3212304353038727</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2165956803469569</v>
+        <v>0.2178055407645635</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4408810962870008</v>
+        <v>0.4327645598225152</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -2886,19 +2886,19 @@
         <v>71408</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>57291</v>
+        <v>56967</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85897</v>
+        <v>85888</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3393472204159245</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2722613301111441</v>
+        <v>0.2707202171402923</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4082024322594019</v>
+        <v>0.4081600158634835</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>18673</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11500</v>
+        <v>11448</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28217</v>
+        <v>28484</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1321527940307327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08138908819704734</v>
+        <v>0.08101760412452375</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1996999252274377</v>
+        <v>0.2015844401819647</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -2936,19 +2936,19 @@
         <v>8959</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4052</v>
+        <v>4032</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15221</v>
+        <v>15928</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1296014002017048</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05861855669797292</v>
+        <v>0.05832918017187431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2201830873457173</v>
+        <v>0.2304185172725804</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -2957,19 +2957,19 @@
         <v>27632</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19658</v>
+        <v>17755</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38752</v>
+        <v>38943</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1313146249249865</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09341901179682101</v>
+        <v>0.08437667447190787</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1841604845172315</v>
+        <v>0.1850674350207006</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>10084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4317</v>
+        <v>4763</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17547</v>
+        <v>18341</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07136663847666688</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03055105901811428</v>
+        <v>0.03370905182561857</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1241869151758148</v>
+        <v>0.1298013421660962</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -3007,19 +3007,19 @@
         <v>5923</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2223</v>
+        <v>1977</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12063</v>
+        <v>11739</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08568615350256802</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03215262384077871</v>
+        <v>0.02860628461902548</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1745043400204458</v>
+        <v>0.1698120742334281</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -3028,19 +3028,19 @@
         <v>16007</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9500</v>
+        <v>9049</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24832</v>
+        <v>25096</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07607080251728897</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04514541818252892</v>
+        <v>0.04300180718898208</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.11800615842656</v>
+        <v>0.1192623575940401</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>221455</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>193687</v>
+        <v>196657</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>249106</v>
+        <v>250895</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2398772434449072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.20979950988444</v>
+        <v>0.2130159908681077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2698290115995468</v>
+        <v>0.2717665056182597</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>159</v>
@@ -3153,19 +3153,19 @@
         <v>163441</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>140862</v>
+        <v>142932</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>185471</v>
+        <v>185768</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2512383886574057</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2165295162398248</v>
+        <v>0.2197115442630604</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2851013334473088</v>
+        <v>0.2855576702528564</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>361</v>
@@ -3174,19 +3174,19 @@
         <v>384897</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>349824</v>
+        <v>350119</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>419859</v>
+        <v>420692</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2445736332514977</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2222873546108068</v>
+        <v>0.2224751704139107</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2667898610378754</v>
+        <v>0.2673189401336047</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>147373</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>127027</v>
+        <v>124754</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>172267</v>
+        <v>171077</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1596329456864345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1375936327875956</v>
+        <v>0.135131802581502</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1865974852824863</v>
+        <v>0.1853088263329875</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -3224,19 +3224,19 @@
         <v>125731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>106616</v>
+        <v>105981</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145395</v>
+        <v>145681</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1932711792941948</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1638871850126655</v>
+        <v>0.1629113549682485</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.223497272471431</v>
+        <v>0.223937175965044</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>264</v>
@@ -3245,19 +3245,19 @@
         <v>273105</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>245198</v>
+        <v>243980</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>306683</v>
+        <v>304650</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1735380806417912</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1558051642146578</v>
+        <v>0.1550313882067824</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1948743638368418</v>
+        <v>0.1935829444725929</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>276193</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>247212</v>
+        <v>248563</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>306787</v>
+        <v>306669</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2991685992230652</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2677770285069764</v>
+        <v>0.2692408560426523</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3323074155601929</v>
+        <v>0.3321803669303273</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>189</v>
@@ -3295,19 +3295,19 @@
         <v>190297</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>166263</v>
+        <v>167979</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>213028</v>
+        <v>214945</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2925200673950615</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2555757549032434</v>
+        <v>0.2582131750911706</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.327461415720264</v>
+        <v>0.3304079234822954</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>448</v>
@@ -3316,19 +3316,19 @@
         <v>466490</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>429461</v>
+        <v>430807</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>501561</v>
+        <v>503008</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.296420276186803</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2728912899606623</v>
+        <v>0.2737463173019618</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3187055685560964</v>
+        <v>0.3196245484330211</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>178407</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154262</v>
+        <v>155622</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>204179</v>
+        <v>204063</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.193248382990872</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1670943910511728</v>
+        <v>0.1685674039508147</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2211645752336693</v>
+        <v>0.2210383567068031</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -3366,19 +3366,19 @@
         <v>115563</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96275</v>
+        <v>97435</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136925</v>
+        <v>135234</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1776402949694993</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1479914056710705</v>
+        <v>0.1497753649846706</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2104775410145665</v>
+        <v>0.2078787633991862</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>280</v>
@@ -3387,19 +3387,19 @@
         <v>293970</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>261818</v>
+        <v>259994</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>326174</v>
+        <v>323357</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1867964220210129</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.166366179497175</v>
+        <v>0.1652072607421975</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2072599170838207</v>
+        <v>0.2054696874060007</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>99773</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>81798</v>
+        <v>79858</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>121480</v>
+        <v>119704</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.108072828654721</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08860279258326434</v>
+        <v>0.08650134643623984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1315856863198058</v>
+        <v>0.1296618939200279</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -3437,19 +3437,19 @@
         <v>55511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42960</v>
+        <v>42415</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72388</v>
+        <v>71767</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08533006968383874</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06603637735025183</v>
+        <v>0.06519872718894577</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1112729311836557</v>
+        <v>0.1103187393064782</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>146</v>
@@ -3458,19 +3458,19 @@
         <v>155284</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>131720</v>
+        <v>131455</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181596</v>
+        <v>180305</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09867158789889519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08369861820520227</v>
+        <v>0.08353010347840663</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1153909399307405</v>
+        <v>0.1145709690927978</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>69712</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55936</v>
+        <v>54305</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86216</v>
+        <v>85636</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2000712046513306</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1605347130098879</v>
+        <v>0.1558517014265924</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2474364301794428</v>
+        <v>0.2457712991664457</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>75</v>
@@ -3583,19 +3583,19 @@
         <v>78103</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62252</v>
+        <v>63641</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92844</v>
+        <v>93232</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2532075067841364</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2018208585302561</v>
+        <v>0.2063224173418082</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3009990022329879</v>
+        <v>0.3022560404913258</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>142</v>
@@ -3604,19 +3604,19 @@
         <v>147815</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128644</v>
+        <v>127822</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>172039</v>
+        <v>169274</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2250221562642157</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.195837246853022</v>
+        <v>0.1945864723845792</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2618993693227627</v>
+        <v>0.2576889899056373</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>70464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>54741</v>
+        <v>55608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>86587</v>
+        <v>87231</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.202227875616776</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1571035892627826</v>
+        <v>0.1595914887521641</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2485009274232313</v>
+        <v>0.2503477095111385</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -3654,19 +3654,19 @@
         <v>54225</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42781</v>
+        <v>42483</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69706</v>
+        <v>68549</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1757977062519491</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1386941371308437</v>
+        <v>0.1377290309720443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2259864618907679</v>
+        <v>0.2222351089110456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -3675,19 +3675,19 @@
         <v>124689</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>103387</v>
+        <v>103815</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>145186</v>
+        <v>144504</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1898171911981663</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1573887773704698</v>
+        <v>0.1580394612796324</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2210195301470753</v>
+        <v>0.2199821730728495</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>99084</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>82344</v>
+        <v>80572</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>117759</v>
+        <v>115965</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2843663816255106</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2363245959809662</v>
+        <v>0.2312375850089815</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3379635679634213</v>
+        <v>0.3328146015385022</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>84</v>
@@ -3725,19 +3725,19 @@
         <v>86547</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>70897</v>
+        <v>70937</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>102392</v>
+        <v>101667</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.280583938648577</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.229848204452782</v>
+        <v>0.2299782723134315</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3319527571437155</v>
+        <v>0.3296032974000925</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>173</v>
@@ -3746,19 +3746,19 @@
         <v>185631</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>162605</v>
+        <v>163376</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>208827</v>
+        <v>212680</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2825902785112951</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2475379687904241</v>
+        <v>0.2487113853761822</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3179016692807889</v>
+        <v>0.3237671886690688</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>59039</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46313</v>
+        <v>45709</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75479</v>
+        <v>74515</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1694394948910156</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1329169673137284</v>
+        <v>0.131182263959928</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.216620655765996</v>
+        <v>0.2138551663688466</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -3796,19 +3796,19 @@
         <v>53668</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41559</v>
+        <v>41418</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68433</v>
+        <v>68710</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.17399051712953</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1347334199358655</v>
+        <v>0.1342756167930427</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2218584454672655</v>
+        <v>0.2227551848946379</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -3817,19 +3817,19 @@
         <v>112707</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>94845</v>
+        <v>92676</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133356</v>
+        <v>133506</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1715764959826333</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1443852913374342</v>
+        <v>0.1410833724988662</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2030101305957185</v>
+        <v>0.2032385394902327</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>50139</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36328</v>
+        <v>37913</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64306</v>
+        <v>64837</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1438950432153672</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1042588975890666</v>
+        <v>0.1088096278420003</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1845555118546163</v>
+        <v>0.1860802210783316</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -3867,19 +3867,19 @@
         <v>35910</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25661</v>
+        <v>25343</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48439</v>
+        <v>47925</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1164203311858075</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08319321053874745</v>
+        <v>0.08216011706847377</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1570385012742121</v>
+        <v>0.1553709206653482</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>81</v>
@@ -3888,19 +3888,19 @@
         <v>86049</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>68686</v>
+        <v>68735</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>104995</v>
+        <v>103307</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1309938780436896</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1045629863672681</v>
+        <v>0.104636793593119</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1598357368656202</v>
+        <v>0.1572671422885709</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>327806</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>294292</v>
+        <v>295220</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>358581</v>
+        <v>360182</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.232002988720839</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.208283881859845</v>
+        <v>0.2089408336552743</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2537840217223842</v>
+        <v>0.2549173419947532</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>252</v>
@@ -4013,19 +4013,19 @@
         <v>259510</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>230844</v>
+        <v>231927</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>286429</v>
+        <v>289787</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2524113307138692</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2245293540111039</v>
+        <v>0.2255827986763639</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2785932302298506</v>
+        <v>0.2818592381870845</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>556</v>
@@ -4034,19 +4034,19 @@
         <v>587316</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>544626</v>
+        <v>546868</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>629097</v>
+        <v>633584</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2405985574177015</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2231103734491949</v>
+        <v>0.2240287366550368</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2577143132138916</v>
+        <v>0.2595525022237186</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>244539</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>219579</v>
+        <v>215832</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>277380</v>
+        <v>275971</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1730711082661393</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1554059239297089</v>
+        <v>0.1527537307615696</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.196314146201637</v>
+        <v>0.1953169478338261</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>190</v>
@@ -4084,19 +4084,19 @@
         <v>194030</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>169166</v>
+        <v>169909</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>219637</v>
+        <v>217997</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1887223483739927</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1645387849634481</v>
+        <v>0.1652605752572436</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2136282601991807</v>
+        <v>0.2120338736668231</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>419</v>
@@ -4105,19 +4105,19 @@
         <v>438569</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>401442</v>
+        <v>400513</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>475486</v>
+        <v>480534</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.17966308470323</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1644536438626347</v>
+        <v>0.1640730189230616</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1947864554400862</v>
+        <v>0.1968545144936643</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>424479</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>389739</v>
+        <v>387181</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>463423</v>
+        <v>459697</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3004226652122487</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2758356129167169</v>
+        <v>0.2740252764676721</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3279855183321733</v>
+        <v>0.32534801545886</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>295</v>
@@ -4155,19 +4155,19 @@
         <v>299050</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>270103</v>
+        <v>271200</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>324824</v>
+        <v>325743</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2908694523046368</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2627138614029692</v>
+        <v>0.2637809764542368</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3159385520938843</v>
+        <v>0.3168321908236462</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>688</v>
@@ -4176,19 +4176,19 @@
         <v>723529</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>675786</v>
+        <v>680352</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>766518</v>
+        <v>766104</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2963990508563557</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2768406843876781</v>
+        <v>0.2787112076649265</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3140099498889003</v>
+        <v>0.31384012710447</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>256119</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>228175</v>
+        <v>228072</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>285473</v>
+        <v>285936</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.181267208615127</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1614899267386446</v>
+        <v>0.1614167980747372</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2020419502355776</v>
+        <v>0.202370048819823</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>172</v>
@@ -4226,19 +4226,19 @@
         <v>178190</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>155280</v>
+        <v>154205</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>204383</v>
+        <v>203032</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1733153024926515</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1510321140803983</v>
+        <v>0.1499863879595832</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1987922480990961</v>
+        <v>0.1974779108828476</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>413</v>
@@ -4247,19 +4247,19 @@
         <v>434309</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>399350</v>
+        <v>396010</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>477415</v>
+        <v>471944</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1779180313340876</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1635966491286548</v>
+        <v>0.1622286650264823</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1955764928927042</v>
+        <v>0.1933355928680406</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>159995</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>138121</v>
+        <v>137740</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>185999</v>
+        <v>186977</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.113236029185646</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0977546270867862</v>
+        <v>0.09748453961160254</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1316401675231768</v>
+        <v>0.1323319286535133</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>95</v>
@@ -4297,19 +4297,19 @@
         <v>97344</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>79185</v>
+        <v>80651</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>118719</v>
+        <v>116429</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09468156611484978</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07701849654146761</v>
+        <v>0.0784451134419193</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1154709209953424</v>
+        <v>0.1132439852949394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>242</v>
@@ -4318,19 +4318,19 @@
         <v>257340</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>228131</v>
+        <v>229844</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>291679</v>
+        <v>289548</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1054212756886252</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09345567583206313</v>
+        <v>0.09415716222304822</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1194884913217556</v>
+        <v>0.1186153979948524</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>15200</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8420</v>
+        <v>7799</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24127</v>
+        <v>24260</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3718462003536854</v>
+        <v>0.3718462003536855</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2059985245389714</v>
+        <v>0.1907931200553597</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5902575665081772</v>
+        <v>0.5934941305799273</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4682,19 +4682,19 @@
         <v>5300</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2368</v>
+        <v>2326</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9378</v>
+        <v>9166</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2345107202659983</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1047745268882804</v>
+        <v>0.1029118265538588</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4149777340874078</v>
+        <v>0.4055565015529062</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -4703,19 +4703,19 @@
         <v>20500</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13265</v>
+        <v>12645</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31564</v>
+        <v>31380</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3229499906323504</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2089805436823101</v>
+        <v>0.199208755945249</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4972575939375904</v>
+        <v>0.4943663870265442</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>11957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5981</v>
+        <v>5541</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19915</v>
+        <v>19300</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2925306147856547</v>
+        <v>0.2925306147856548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1463135944175565</v>
+        <v>0.1355672592434812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4871936775315893</v>
+        <v>0.4721700396513271</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -4753,19 +4753,19 @@
         <v>4395</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1656</v>
+        <v>1508</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8543</v>
+        <v>8379</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1944650062032448</v>
+        <v>0.1944650062032449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07327758971812387</v>
+        <v>0.06672607015767654</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3779907837044109</v>
+        <v>0.3707461820011032</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -4774,19 +4774,19 @@
         <v>16352</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9749</v>
+        <v>9580</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25467</v>
+        <v>24654</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2576158457788817</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1535863992358993</v>
+        <v>0.1509291838794579</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4012098447117608</v>
+        <v>0.3884026861940901</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>4372</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1503</v>
+        <v>1631</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9882</v>
+        <v>10091</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1069470875313945</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03676686926063667</v>
+        <v>0.03989295652674429</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.241744986174502</v>
+        <v>0.246863268244939</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -4824,19 +4824,19 @@
         <v>8665</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5283</v>
+        <v>5086</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13465</v>
+        <v>12623</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3833995817414818</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2337570706708428</v>
+        <v>0.225042706296721</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5957937024649572</v>
+        <v>0.5585432699224797</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -4845,19 +4845,19 @@
         <v>13036</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7832</v>
+        <v>7574</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20126</v>
+        <v>19932</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2053737950817803</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1233784666434007</v>
+        <v>0.1193138376495066</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3170573753480424</v>
+        <v>0.3140055014508384</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>6338</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1773</v>
+        <v>2170</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15458</v>
+        <v>14966</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1550451857974419</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04336866846998796</v>
+        <v>0.05309364401973152</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3781650407188021</v>
+        <v>0.3661364455824314</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4895,19 +4895,19 @@
         <v>3494</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1202</v>
+        <v>1169</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7927</v>
+        <v>7524</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1546193318437249</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05320357219327233</v>
+        <v>0.05171608916494308</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3507667708174165</v>
+        <v>0.3329346587193621</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -4916,19 +4916,19 @@
         <v>9832</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4847</v>
+        <v>4680</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18830</v>
+        <v>18219</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1548935669716417</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07635440471254253</v>
+        <v>0.07373400703840893</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2966511762505308</v>
+        <v>0.2870251652571129</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>3010</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>707</v>
+        <v>888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7991</v>
+        <v>9193</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07363091153182331</v>
+        <v>0.07363091153182333</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01728472510605037</v>
+        <v>0.02173144186421644</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1954853575277248</v>
+        <v>0.2249028628600989</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -4969,16 +4969,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3586</v>
+        <v>4538</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.03300535994554994</v>
+        <v>0.03300535994554995</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1586878283662788</v>
+        <v>0.2007983180744699</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -4987,19 +4987,19 @@
         <v>3756</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1027</v>
+        <v>1150</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8741</v>
+        <v>9014</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05916680153534591</v>
+        <v>0.0591668015353459</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01618631493954857</v>
+        <v>0.01811007700056158</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1377032308011888</v>
+        <v>0.142003897469639</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>108236</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91741</v>
+        <v>90150</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128108</v>
+        <v>127390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3688598122752195</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3126467332478108</v>
+        <v>0.3072248451532329</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4365851533394511</v>
+        <v>0.434136915553436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>113</v>
@@ -5112,19 +5112,19 @@
         <v>89625</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75458</v>
+        <v>74511</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103029</v>
+        <v>104604</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3573291486968612</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3008467383204469</v>
+        <v>0.2970691646048852</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4107702328168975</v>
+        <v>0.4170466401633213</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>199</v>
@@ -5133,19 +5133,19 @@
         <v>197861</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>170676</v>
+        <v>174336</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>220623</v>
+        <v>222647</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3635458848158948</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3135961339055029</v>
+        <v>0.3203224598953314</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4053690497487514</v>
+        <v>0.409087190141918</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>38275</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27514</v>
+        <v>27201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53493</v>
+        <v>53112</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1304390613557548</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0937646672393106</v>
+        <v>0.0927003118523065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1822995749464255</v>
+        <v>0.181000582966112</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -5183,19 +5183,19 @@
         <v>39990</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30477</v>
+        <v>31582</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50899</v>
+        <v>51516</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1594386627028554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.12151139228023</v>
+        <v>0.1259168146836883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2029285224410045</v>
+        <v>0.2053884035163808</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>89</v>
@@ -5204,19 +5204,19 @@
         <v>78266</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>62739</v>
+        <v>64261</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>94446</v>
+        <v>95095</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.143803580826868</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1152755463378518</v>
+        <v>0.1180710610065477</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.173533140188276</v>
+        <v>0.1747250300454088</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>81893</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65242</v>
+        <v>65047</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99291</v>
+        <v>100152</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.279087512287756</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2223418302945761</v>
+        <v>0.2216741672646685</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3383784955538331</v>
+        <v>0.3413116534246089</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>82</v>
@@ -5254,19 +5254,19 @@
         <v>62318</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49850</v>
+        <v>51548</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74985</v>
+        <v>77566</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2484557114040952</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.19874911839585</v>
+        <v>0.2055176861841731</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2989600446158188</v>
+        <v>0.3092515650370625</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>152</v>
@@ -5275,19 +5275,19 @@
         <v>144211</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>122843</v>
+        <v>124615</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>168054</v>
+        <v>167857</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2649707906664818</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2257087762346324</v>
+        <v>0.2289657901201059</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3087790694645184</v>
+        <v>0.3084181428188535</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>39885</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28708</v>
+        <v>27454</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57501</v>
+        <v>57360</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1359261543454592</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09783490735903776</v>
+        <v>0.09356300270687787</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1959610177722123</v>
+        <v>0.1954779985163699</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -5325,19 +5325,19 @@
         <v>35111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26421</v>
+        <v>25615</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46060</v>
+        <v>45416</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1399844886703258</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1053387181682564</v>
+        <v>0.1021266972949397</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1836375156263703</v>
+        <v>0.1810704621336236</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -5346,19 +5346,19 @@
         <v>74996</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60369</v>
+        <v>58689</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94212</v>
+        <v>94963</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1377964451627634</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1109217428896222</v>
+        <v>0.1078345967172059</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1731041217291453</v>
+        <v>0.174483060431169</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>25144</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15585</v>
+        <v>15824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39352</v>
+        <v>41197</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08568745973581056</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05311297380765728</v>
+        <v>0.05392674594953273</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1341077488760063</v>
+        <v>0.1403963563878668</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -5396,19 +5396,19 @@
         <v>23776</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16307</v>
+        <v>15795</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33846</v>
+        <v>33258</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09479198852586246</v>
+        <v>0.09479198852586244</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0650160597386464</v>
+        <v>0.0629744431223834</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1349426917769514</v>
+        <v>0.1325960664014721</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -5417,19 +5417,19 @@
         <v>48919</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36176</v>
+        <v>35120</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>63969</v>
+        <v>64012</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0898832985279919</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06646960399584921</v>
+        <v>0.06452838016600473</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1175361167495459</v>
+        <v>0.1176151573088616</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>48576</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36105</v>
+        <v>36230</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63968</v>
+        <v>61544</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3517745890437262</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2614639755614739</v>
+        <v>0.2623690738056334</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.463241137620185</v>
+        <v>0.4456874375067987</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -5542,19 +5542,19 @@
         <v>33404</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24950</v>
+        <v>25257</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41856</v>
+        <v>43543</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2932882371082529</v>
+        <v>0.2932882371082528</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.219061871596103</v>
+        <v>0.2217573236483693</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3674967608168815</v>
+        <v>0.3823151340067719</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>83</v>
@@ -5563,19 +5563,19 @@
         <v>81980</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67164</v>
+        <v>67207</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>97515</v>
+        <v>97506</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3253391772542899</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2665437915147569</v>
+        <v>0.2667142575926091</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3869901735745729</v>
+        <v>0.3869574392899902</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>18961</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11407</v>
+        <v>11799</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29520</v>
+        <v>29017</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1373130017867809</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08260720361582707</v>
+        <v>0.08544389595130829</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2137734161824033</v>
+        <v>0.2101353532828248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -5613,19 +5613,19 @@
         <v>19119</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12561</v>
+        <v>12924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28372</v>
+        <v>27283</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1678646820567755</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1102824036926524</v>
+        <v>0.1134745524677777</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2491081406559696</v>
+        <v>0.2395441354769787</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -5634,19 +5634,19 @@
         <v>38080</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27894</v>
+        <v>27500</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51612</v>
+        <v>48738</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1511221422455252</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1106992350891099</v>
+        <v>0.1091339851481996</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.204822248595492</v>
+        <v>0.1934174630674318</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>37518</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26022</v>
+        <v>26122</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50644</v>
+        <v>49782</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2716978404591592</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1884437161162563</v>
+        <v>0.1891682111381429</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3667538621817481</v>
+        <v>0.3605100597379871</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>42</v>
@@ -5684,19 +5684,19 @@
         <v>32340</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24389</v>
+        <v>24021</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40944</v>
+        <v>40911</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.283950346783655</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2141356507675239</v>
+        <v>0.21090836111518</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3594923135121272</v>
+        <v>0.3592026788918213</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>74</v>
@@ -5705,19 +5705,19 @@
         <v>69858</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>55640</v>
+        <v>55811</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>86277</v>
+        <v>85852</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2772358854802963</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2208087129411275</v>
+        <v>0.221486230742075</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3423953591471487</v>
+        <v>0.3407059634692988</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>16821</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8943</v>
+        <v>9662</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30879</v>
+        <v>28674</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1218156675562019</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06476026077986538</v>
+        <v>0.06997177329766381</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2236215796649321</v>
+        <v>0.2076466334770102</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -5755,19 +5755,19 @@
         <v>11594</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6781</v>
+        <v>6518</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19060</v>
+        <v>19387</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1017999429071387</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05953756705402025</v>
+        <v>0.05723063965463525</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.167345094826443</v>
+        <v>0.1702172982687838</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -5776,19 +5776,19 @@
         <v>28416</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18575</v>
+        <v>19058</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41340</v>
+        <v>43419</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1127687035064399</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07371548804234462</v>
+        <v>0.07563185469218021</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1640599402867917</v>
+        <v>0.1723082079852893</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>16211</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8491</v>
+        <v>8007</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29607</v>
+        <v>30944</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1173989011541317</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06149193539366027</v>
+        <v>0.05798518946179403</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2144045176219767</v>
+        <v>0.2240905141109928</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -5826,19 +5826,19 @@
         <v>17437</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10493</v>
+        <v>10695</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26152</v>
+        <v>26322</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1530967911441779</v>
+        <v>0.1530967911441778</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09212667437858083</v>
+        <v>0.0939016424489489</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.229615557942595</v>
+        <v>0.2311097945881622</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -5847,19 +5847,19 @@
         <v>33648</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23334</v>
+        <v>23343</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49119</v>
+        <v>49367</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1335340915134486</v>
+        <v>0.1335340915134487</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09260133281045362</v>
+        <v>0.09263761021345805</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1949301129136482</v>
+        <v>0.1959131623998269</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>172011</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>148722</v>
+        <v>148260</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>197999</v>
+        <v>197161</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3641239892713345</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3148249214517961</v>
+        <v>0.3138461475823134</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4191373753906892</v>
+        <v>0.4173629621617598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>163</v>
@@ -5972,19 +5972,19 @@
         <v>128329</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>110243</v>
+        <v>111855</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>144146</v>
+        <v>147374</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3313308151498309</v>
+        <v>0.3313308151498308</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2846364656762161</v>
+        <v>0.2887972183136479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3721685228480188</v>
+        <v>0.3805043001358117</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>299</v>
@@ -5993,19 +5993,19 @@
         <v>300340</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>272987</v>
+        <v>272393</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>332700</v>
+        <v>333258</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3493501321254617</v>
+        <v>0.3493501321254616</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3175333518194517</v>
+        <v>0.3168427648547013</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3869909361726206</v>
+        <v>0.3876397594697309</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>69194</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>54837</v>
+        <v>54512</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>89860</v>
+        <v>87630</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1464740318669417</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1160824187000511</v>
+        <v>0.1153940477668163</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1902204760269278</v>
+        <v>0.1855016746106484</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -6043,19 +6043,19 @@
         <v>63504</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51856</v>
+        <v>50832</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>78221</v>
+        <v>76256</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1639601948743682</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1338867185748152</v>
+        <v>0.1312422000329221</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2019586038412032</v>
+        <v>0.1968840676943794</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>148</v>
@@ -6064,19 +6064,19 @@
         <v>132698</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>113232</v>
+        <v>113714</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>157385</v>
+        <v>155121</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1543518320867065</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.131709252978203</v>
+        <v>0.1322698631530407</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1830670612155212</v>
+        <v>0.1804336932028294</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>123783</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>103969</v>
+        <v>103531</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>144893</v>
+        <v>149360</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2620322674835431</v>
+        <v>0.262032267483543</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2200889811361383</v>
+        <v>0.2191606829117821</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3067179504127645</v>
+        <v>0.3161737218646784</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>136</v>
@@ -6114,19 +6114,19 @@
         <v>103322</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>89181</v>
+        <v>87351</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>120396</v>
+        <v>122004</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2667672031680673</v>
+        <v>0.2667672031680672</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2302555522529277</v>
+        <v>0.2255309873181134</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3108485115265303</v>
+        <v>0.3150018380280989</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>243</v>
@@ -6135,19 +6135,19 @@
         <v>227106</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>200434</v>
+        <v>200452</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>253773</v>
+        <v>256391</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2641654328532285</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2331415210896115</v>
+        <v>0.2331626968577459</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2951843244599343</v>
+        <v>0.2982294652825619</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>63044</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44241</v>
+        <v>45520</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>82740</v>
+        <v>82520</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1334558277331394</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09365307686770259</v>
+        <v>0.09635947896542131</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1751490526828683</v>
+        <v>0.1746833175989563</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -6185,19 +6185,19 @@
         <v>50200</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39308</v>
+        <v>39439</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63568</v>
+        <v>64750</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1296098272188372</v>
+        <v>0.1296098272188371</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1014888612186844</v>
+        <v>0.1018277094135829</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1641248225023243</v>
+        <v>0.1671766838702843</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>113</v>
@@ -6206,19 +6206,19 @@
         <v>113244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>92726</v>
+        <v>94218</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>138565</v>
+        <v>138206</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1317231420842685</v>
+        <v>0.1317231420842684</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1078571773527449</v>
+        <v>0.1095926654172189</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1611760529602388</v>
+        <v>0.1607593498210652</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>44365</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30961</v>
+        <v>30805</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>65366</v>
+        <v>63465</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09391388364504136</v>
+        <v>0.09391388364504137</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06554108200818409</v>
+        <v>0.06521033042114717</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1383698823196167</v>
+        <v>0.1343466124309483</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>49</v>
@@ -6256,19 +6256,19 @@
         <v>41958</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31735</v>
+        <v>32171</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55041</v>
+        <v>56143</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1083319595888966</v>
+        <v>0.1083319595888965</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08193741847993055</v>
+        <v>0.08306141144072592</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1421087386563385</v>
+        <v>0.1449547649862827</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>81</v>
@@ -6277,19 +6277,19 @@
         <v>86323</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>69178</v>
+        <v>68207</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>107694</v>
+        <v>108654</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1004094608503349</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0804663871717423</v>
+        <v>0.07933704801101564</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.125267617695111</v>
+        <v>0.126384329474459</v>
       </c>
     </row>
     <row r="27">
